--- a/GA/dekalb_poll_addresses.xlsx
+++ b/GA/dekalb_poll_addresses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MEDSL\healthy_elections\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A19BEA-8EAC-441F-863B-914BDBFBE84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3A252D-F5D9-4B1C-AD5D-6C93ABD495D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2D08782-BF13-40BD-A01A-900FB3B5FA30}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="376">
   <si>
     <r>
       <rPr>
@@ -4854,6 +4854,18 @@
       </rPr>
       <t>Stone Mountain 30088</t>
     </r>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>new_address</t>
+  </si>
+  <si>
+    <t>Neighborhood Church at 1561 McLendon Avenue, NE, Atlanta, GA</t>
+  </si>
+  <si>
+    <t>2397 Fourth Street, Tucker, GA, Lithonia, GA</t>
   </si>
 </sst>
 </file>
@@ -5234,8 +5246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F388529E-12BD-466A-94C4-5167BDCDE08B}">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5247,6 +5259,12 @@
       <c r="B1" t="s">
         <v>192</v>
       </c>
+      <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5255,7 +5273,9 @@
       <c r="B2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -5269,7 +5289,9 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -5283,7 +5305,9 @@
       <c r="B4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5297,7 +5321,9 @@
       <c r="B5" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -5311,7 +5337,9 @@
       <c r="B6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5325,7 +5353,9 @@
       <c r="B7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5339,7 +5369,9 @@
       <c r="B8" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5353,7 +5385,9 @@
       <c r="B9" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5367,7 +5401,9 @@
       <c r="B10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -5381,7 +5417,9 @@
       <c r="B11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5395,7 +5433,9 @@
       <c r="B12" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5409,7 +5449,9 @@
       <c r="B13" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5423,7 +5465,9 @@
       <c r="B14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5437,7 +5481,9 @@
       <c r="B15" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5451,7 +5497,9 @@
       <c r="B16" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5465,7 +5513,9 @@
       <c r="B17" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5479,7 +5529,9 @@
       <c r="B18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5493,7 +5545,9 @@
       <c r="B19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5505,7 +5559,9 @@
       <c r="B20" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -5517,7 +5573,9 @@
       <c r="B21" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5529,7 +5587,9 @@
       <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -5541,7 +5601,9 @@
       <c r="B23" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -5553,7 +5615,9 @@
       <c r="B24" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -5565,7 +5629,9 @@
       <c r="B25" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -5577,7 +5643,9 @@
       <c r="B26" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -5589,7 +5657,9 @@
       <c r="B27" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -5601,7 +5671,9 @@
       <c r="B28" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5613,7 +5685,9 @@
       <c r="B29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -5625,7 +5699,9 @@
       <c r="B30" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5637,7 +5713,9 @@
       <c r="B31" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5649,7 +5727,9 @@
       <c r="B32" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -5661,7 +5741,9 @@
       <c r="B33" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -5673,7 +5755,9 @@
       <c r="B34" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -5685,7 +5769,9 @@
       <c r="B35" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -5697,7 +5783,9 @@
       <c r="B36" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -5709,7 +5797,9 @@
       <c r="B37" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5721,7 +5811,9 @@
       <c r="B38" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -5733,7 +5825,9 @@
       <c r="B39" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5752,7 +5846,9 @@
       <c r="B40" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -5771,7 +5867,9 @@
       <c r="B41" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -5790,7 +5888,9 @@
       <c r="B42" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5809,7 +5909,9 @@
       <c r="B43" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -5828,7 +5930,9 @@
       <c r="B44" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5847,7 +5951,9 @@
       <c r="B45" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5866,7 +5972,9 @@
       <c r="B46" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5885,7 +5993,9 @@
       <c r="B47" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5904,7 +6014,9 @@
       <c r="B48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5923,7 +6035,9 @@
       <c r="B49" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -5942,7 +6056,9 @@
       <c r="B50" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5961,7 +6077,9 @@
       <c r="B51" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -5980,7 +6098,9 @@
       <c r="B52" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5999,7 +6119,9 @@
       <c r="B53" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -6018,7 +6140,9 @@
       <c r="B54" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -6037,7 +6161,9 @@
       <c r="B55" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -6056,7 +6182,9 @@
       <c r="B56" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -6075,7 +6203,9 @@
       <c r="B57" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -6094,7 +6224,9 @@
       <c r="B58" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -6113,7 +6245,9 @@
       <c r="B59" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -6132,7 +6266,9 @@
       <c r="B60" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6148,7 +6284,9 @@
       <c r="B61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -6164,7 +6302,9 @@
       <c r="B62" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -6180,7 +6320,9 @@
       <c r="B63" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -6196,7 +6338,9 @@
       <c r="B64" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6212,7 +6356,9 @@
       <c r="B65" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6228,7 +6374,9 @@
       <c r="B66" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6244,7 +6392,9 @@
       <c r="B67" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -6260,7 +6410,9 @@
       <c r="B68" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -6276,7 +6428,9 @@
       <c r="B69" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -6292,7 +6446,9 @@
       <c r="B70" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6308,7 +6464,9 @@
       <c r="B71" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6324,7 +6482,9 @@
       <c r="B72" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -6340,7 +6500,9 @@
       <c r="B73" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -6356,7 +6518,9 @@
       <c r="B74" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -6372,7 +6536,9 @@
       <c r="B75" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -6388,7 +6554,9 @@
       <c r="B76" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -6404,7 +6572,9 @@
       <c r="B77" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -6420,7 +6590,9 @@
       <c r="B78" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -6436,7 +6608,9 @@
       <c r="B79" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -6452,7 +6626,9 @@
       <c r="B80" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -6468,7 +6644,9 @@
       <c r="B81" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6484,7 +6662,9 @@
       <c r="B82" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -6500,7 +6680,9 @@
       <c r="B83" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -6516,7 +6698,9 @@
       <c r="B84" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -6532,7 +6716,9 @@
       <c r="B85" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -6548,7 +6734,9 @@
       <c r="B86" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -6564,7 +6752,9 @@
       <c r="B87" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -6580,7 +6770,9 @@
       <c r="B88" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -6596,7 +6788,9 @@
       <c r="B89" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -6612,7 +6806,9 @@
       <c r="B90" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -6628,7 +6824,9 @@
       <c r="B91" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -6644,7 +6842,9 @@
       <c r="B92" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -6660,7 +6860,9 @@
       <c r="B93" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -6676,7 +6878,9 @@
       <c r="B94" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -6692,8 +6896,12 @@
       <c r="B95" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -6708,7 +6916,9 @@
       <c r="B96" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -6724,7 +6934,9 @@
       <c r="B97" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -6740,7 +6952,9 @@
       <c r="B98" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -6756,7 +6970,9 @@
       <c r="B99" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -6772,7 +6988,9 @@
       <c r="B100" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -6788,7 +7006,9 @@
       <c r="B101" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -6804,7 +7024,9 @@
       <c r="B102" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -6820,7 +7042,9 @@
       <c r="B103" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -6836,7 +7060,9 @@
       <c r="B104" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -6852,7 +7078,9 @@
       <c r="B105" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -6868,7 +7096,9 @@
       <c r="B106" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -6884,7 +7114,9 @@
       <c r="B107" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -6900,7 +7132,9 @@
       <c r="B108" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -6916,7 +7150,9 @@
       <c r="B109" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -6932,7 +7168,9 @@
       <c r="B110" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -6948,7 +7186,9 @@
       <c r="B111" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -6964,7 +7204,9 @@
       <c r="B112" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -6980,7 +7222,9 @@
       <c r="B113" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -6996,7 +7240,9 @@
       <c r="B114" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -7012,7 +7258,9 @@
       <c r="B115" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -7028,7 +7276,9 @@
       <c r="B116" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -7044,7 +7294,9 @@
       <c r="B117" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C117" s="2"/>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -7060,7 +7312,9 @@
       <c r="B118" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -7076,7 +7330,9 @@
       <c r="B119" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -7092,7 +7348,9 @@
       <c r="B120" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -7108,7 +7366,9 @@
       <c r="B121" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -7121,7 +7381,9 @@
       <c r="B122" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -7134,7 +7396,9 @@
       <c r="B123" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -7147,7 +7411,9 @@
       <c r="B124" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -7160,7 +7426,9 @@
       <c r="B125" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -7173,7 +7441,9 @@
       <c r="B126" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C126" s="2"/>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -7186,7 +7456,9 @@
       <c r="B127" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -7199,7 +7471,9 @@
       <c r="B128" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C128" s="2"/>
+      <c r="C128" s="3">
+        <v>0</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -7212,7 +7486,9 @@
       <c r="B129" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C129" s="2"/>
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -7225,7 +7501,9 @@
       <c r="B130" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3">
+        <v>0</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -7238,7 +7516,9 @@
       <c r="B131" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -7251,7 +7531,9 @@
       <c r="B132" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -7264,7 +7546,9 @@
       <c r="B133" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3">
+        <v>0</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -7277,7 +7561,9 @@
       <c r="B134" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C134" s="2"/>
+      <c r="C134" s="3">
+        <v>0</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -7290,7 +7576,9 @@
       <c r="B135" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -7303,7 +7591,9 @@
       <c r="B136" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -7316,7 +7606,9 @@
       <c r="B137" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -7329,7 +7621,9 @@
       <c r="B138" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C138" s="2"/>
+      <c r="C138" s="3">
+        <v>0</v>
+      </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -7342,7 +7636,9 @@
       <c r="B139" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C139" s="2"/>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -7355,7 +7651,9 @@
       <c r="B140" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -7368,7 +7666,9 @@
       <c r="B141" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -7381,7 +7681,9 @@
       <c r="B142" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
       <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7391,7 +7693,9 @@
       <c r="B143" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3">
+        <v>0</v>
+      </c>
       <c r="D143" s="3"/>
     </row>
     <row r="144" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7401,7 +7705,9 @@
       <c r="B144" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7411,7 +7717,9 @@
       <c r="B145" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
       <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7421,7 +7729,9 @@
       <c r="B146" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C146" s="2"/>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7431,7 +7741,9 @@
       <c r="B147" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C147" s="2"/>
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7441,7 +7753,9 @@
       <c r="B148" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7451,7 +7765,9 @@
       <c r="B149" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3">
+        <v>0</v>
+      </c>
       <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7461,7 +7777,9 @@
       <c r="B150" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C150" s="2"/>
+      <c r="C150" s="3">
+        <v>0</v>
+      </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7471,7 +7789,9 @@
       <c r="B151" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C151" s="2"/>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7481,7 +7801,9 @@
       <c r="B152" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
       <c r="D152" s="3"/>
     </row>
     <row r="153" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7491,7 +7813,9 @@
       <c r="B153" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
       <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7501,7 +7825,9 @@
       <c r="B154" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3">
+        <v>0</v>
+      </c>
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7511,7 +7837,9 @@
       <c r="B155" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="3">
+        <v>0</v>
+      </c>
       <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7521,7 +7849,9 @@
       <c r="B156" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C156" s="2"/>
+      <c r="C156" s="3">
+        <v>0</v>
+      </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7531,7 +7861,9 @@
       <c r="B157" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3">
+        <v>0</v>
+      </c>
       <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7541,7 +7873,9 @@
       <c r="B158" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C158" s="2"/>
+      <c r="C158" s="3">
+        <v>0</v>
+      </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7551,7 +7885,9 @@
       <c r="B159" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C159" s="2"/>
+      <c r="C159" s="3">
+        <v>0</v>
+      </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7561,7 +7897,9 @@
       <c r="B160" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C160" s="2"/>
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7571,7 +7909,9 @@
       <c r="B161" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3">
+        <v>0</v>
+      </c>
       <c r="D161" s="3"/>
     </row>
     <row r="162" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7581,7 +7921,9 @@
       <c r="B162" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
       <c r="D162" s="3"/>
     </row>
     <row r="163" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7591,7 +7933,9 @@
       <c r="B163" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -7603,7 +7947,9 @@
       <c r="B164" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -7615,7 +7961,9 @@
       <c r="B165" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C165" s="2"/>
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -7627,7 +7975,9 @@
       <c r="B166" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="2"/>
+      <c r="C166" s="3">
+        <v>0</v>
+      </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -7639,7 +7989,9 @@
       <c r="B167" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3">
+        <v>0</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -7651,7 +8003,9 @@
       <c r="B168" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3">
+        <v>0</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -7663,7 +8017,9 @@
       <c r="B169" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3">
+        <v>0</v>
+      </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -7675,7 +8031,9 @@
       <c r="B170" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3">
+        <v>0</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -7687,7 +8045,9 @@
       <c r="B171" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3">
+        <v>0</v>
+      </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -7699,7 +8059,9 @@
       <c r="B172" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="3">
+        <v>0</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -7711,7 +8073,9 @@
       <c r="B173" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="3">
+        <v>0</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -7723,7 +8087,9 @@
       <c r="B174" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="3">
+        <v>0</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -7735,7 +8101,9 @@
       <c r="B175" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="3">
+        <v>0</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -7747,7 +8115,9 @@
       <c r="B176" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="3">
+        <v>0</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -7759,7 +8129,9 @@
       <c r="B177" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="3">
+        <v>0</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -7771,7 +8143,9 @@
       <c r="B178" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="3">
+        <v>0</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -7783,8 +8157,12 @@
       <c r="B179" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="C179" s="2">
+        <v>1</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
@@ -7795,7 +8173,9 @@
       <c r="B180" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="3">
+        <v>0</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -7807,7 +8187,9 @@
       <c r="B181" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="3">
+        <v>0</v>
+      </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -7819,7 +8201,9 @@
       <c r="B182" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="3">
+        <v>0</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -7831,7 +8215,9 @@
       <c r="B183" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="3">
+        <v>0</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -7843,7 +8229,9 @@
       <c r="B184" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="3">
+        <v>0</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -7857,7 +8245,9 @@
       <c r="B185" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="3">
+        <v>0</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -7871,7 +8261,9 @@
       <c r="B186" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3">
+        <v>0</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -7885,7 +8277,9 @@
       <c r="B187" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C187" s="2"/>
+      <c r="C187" s="3">
+        <v>0</v>
+      </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -7899,7 +8293,9 @@
       <c r="B188" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -7913,7 +8309,9 @@
       <c r="B189" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="3">
+        <v>0</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -7927,7 +8325,9 @@
       <c r="B190" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3">
+        <v>0</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -7941,7 +8341,9 @@
       <c r="B191" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="3">
+        <v>0</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -7955,7 +8357,9 @@
       <c r="B192" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="3">
+        <v>0</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
